--- a/biology/Botanique/Palmeraie/Palmeraie.xlsx
+++ b/biology/Botanique/Palmeraie/Palmeraie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une palmeraie est une parcelle agricole destinée à la culture des palmiers. Elles se rencontrent dans la zone tropicale en raison de la distribution climatique de la plante et principalement en Amérique centrale et du Sud, autour du golfe de Guinée et surtout en Asie du Sud-Est. Les oasis des régions semi-arides et arides d'Afrique du Nord et du Proche et Moyen-Orient abritent généralement des palmeraies[1] de palmier dattier (Phoenix dactylifera L.)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une palmeraie est une parcelle agricole destinée à la culture des palmiers. Elles se rencontrent dans la zone tropicale en raison de la distribution climatique de la plante et principalement en Amérique centrale et du Sud, autour du golfe de Guinée et surtout en Asie du Sud-Est. Les oasis des régions semi-arides et arides d'Afrique du Nord et du Proche et Moyen-Orient abritent généralement des palmeraies de palmier dattier (Phoenix dactylifera L.).
 Les pieds sont plantés, en rangées dans les palmeraies modernes, en désordre apparent dans les palmeraies anciennes, espacés les uns des autres de plusieurs mètres afin qu'ils ne se fassent pas trop d'ombre mutuellement. Les ressources consistent selon les espèces en l'huile de palme, les dattes, le vin de palme, le sagou ou encore le cœur de palmier dans l'alimentation, les fibres et la cire dans l'industrie ou les stipes dans la construction.
 La cocoteraie est un genre de palmeraie composé de cocotiers.
-Le Maroc renferme la plus grande palmeraie du monde qui s'étale sur environ 200 km de longueur pour 18 km de largeur le long de la vallée du Draâ allant de Agdz à M'Hamid El-Ghizlane en passant par Zagora[3].
+Le Maroc renferme la plus grande palmeraie du monde qui s'étale sur environ 200 km de longueur pour 18 km de largeur le long de la vallée du Draâ allant de Agdz à M'Hamid El-Ghizlane en passant par Zagora.
 </t>
         </is>
       </c>
